--- a/Results/UnivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NanMask#True/performances_minNPV_test.xlsx
+++ b/Results/UnivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NanMask#True/performances_minNPV_test.xlsx
@@ -584,46 +584,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6631444152303048</v>
+        <v>0.6644473204870097</v>
       </c>
       <c r="C4">
-        <v>0.007901951565795207</v>
+        <v>0.007309217850260397</v>
       </c>
       <c r="D4">
-        <v>0.3914778847202323</v>
+        <v>0.4089560729882314</v>
       </c>
       <c r="E4">
-        <v>0.003771549698203702</v>
+        <v>0.004307590684770601</v>
       </c>
       <c r="F4">
-        <v>0.9752380952380951</v>
+        <v>0.9744032211676733</v>
       </c>
       <c r="G4">
-        <v>0.006248988036505865</v>
+        <v>0.005717355137641711</v>
       </c>
       <c r="H4">
-        <v>0.2451856413401464</v>
+        <v>0.2590949925356695</v>
       </c>
       <c r="I4">
-        <v>0.003377614868036005</v>
+        <v>0.003765298898254887</v>
       </c>
       <c r="J4">
-        <v>0.7155628257386293</v>
+        <v>0.8615088202039263</v>
       </c>
       <c r="K4">
-        <v>0.09375512010510145</v>
+        <v>0.067213091355104</v>
       </c>
       <c r="L4">
-        <v>0.07430129516019086</v>
+        <v>0.1126593806921676</v>
       </c>
       <c r="M4">
-        <v>0.02082958337822186</v>
+        <v>0.02166297259378309</v>
       </c>
       <c r="N4">
-        <v>0.2857888069155676</v>
+        <v>0.3199142284014664</v>
       </c>
       <c r="O4">
-        <v>0.01457965578751852</v>
+        <v>0.01527939632808362</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -819,46 +819,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7009953815399462</v>
+        <v>0.6810417898679282</v>
       </c>
       <c r="C9">
-        <v>0.007466882568613498</v>
+        <v>0.007602715562975537</v>
       </c>
       <c r="D9">
-        <v>0.3823425913883561</v>
+        <v>0.390260767810656</v>
       </c>
       <c r="E9">
-        <v>0.001392066740929121</v>
+        <v>0.0008014386706373666</v>
       </c>
       <c r="F9">
-        <v>0.9831460674157303</v>
+        <v>0.9901438990735264</v>
       </c>
       <c r="G9">
-        <v>0.005422883680070711</v>
+        <v>0.003521688127320122</v>
       </c>
       <c r="H9">
-        <v>0.2374363201067371</v>
+        <v>0.243057692458895</v>
       </c>
       <c r="I9">
-        <v>0.001359222759602735</v>
+        <v>0.0007038506501311215</v>
       </c>
       <c r="J9">
-        <v>0.7056624238402451</v>
+        <v>0.6984610022074801</v>
       </c>
       <c r="K9">
-        <v>0.07852996435098303</v>
+        <v>0.0865654453343927</v>
       </c>
       <c r="L9">
-        <v>0.02991659199007376</v>
+        <v>0.0231585518102372</v>
       </c>
       <c r="M9">
-        <v>0.01110832936335125</v>
+        <v>0.006157906317206269</v>
       </c>
       <c r="N9">
-        <v>0.2536793796486785</v>
+        <v>0.255724647987484</v>
       </c>
       <c r="O9">
-        <v>0.007333622451686714</v>
+        <v>0.003971838421473362</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -866,46 +866,46 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6936976444747406</v>
+        <v>0.6696655701754386</v>
       </c>
       <c r="C10">
-        <v>0.008128712586967679</v>
+        <v>0.007437827647805983</v>
       </c>
       <c r="D10">
-        <v>0.3882732329130913</v>
+        <v>0.3905575144677084</v>
       </c>
       <c r="E10">
-        <v>0.002338430075438269</v>
+        <v>0.001287365470245605</v>
       </c>
       <c r="F10">
-        <v>0.9795061728395063</v>
+        <v>0.9837719298245613</v>
       </c>
       <c r="G10">
-        <v>0.006213983182893568</v>
+        <v>0.00499961580461894</v>
       </c>
       <c r="H10">
-        <v>0.2423357911643673</v>
+        <v>0.243734279538221</v>
       </c>
       <c r="I10">
-        <v>0.002161858763062602</v>
+        <v>0.00126004507438246</v>
       </c>
       <c r="J10">
-        <v>0.7731331014585208</v>
+        <v>0.6782154934012645</v>
       </c>
       <c r="K10">
-        <v>0.07822488426925456</v>
+        <v>0.08614145810721752</v>
       </c>
       <c r="L10">
-        <v>0.05756267514958721</v>
+        <v>0.03222222222222222</v>
       </c>
       <c r="M10">
-        <v>0.01566006453641249</v>
+        <v>0.01043956589288147</v>
       </c>
       <c r="N10">
-        <v>0.2739813365791457</v>
+        <v>0.2610759493670886</v>
       </c>
       <c r="O10">
-        <v>0.0106568658286213</v>
+        <v>0.006825896045881408</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1101,46 +1101,46 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.5803262494113793</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.009601352780518324</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.401075469508762</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0005578252985588006</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.992260917634052</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.003349843995355206</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2513467487893671</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0004266836363566173</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6623043586498372</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1018968661816139</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.01474110926847245</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004330316566066507</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2591210613598674</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.002555290018418366</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1148,46 +1148,46 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6053556510323426</v>
+        <v>0.5863336663900601</v>
       </c>
       <c r="C16">
-        <v>0.007197144388303101</v>
+        <v>0.00877940603670424</v>
       </c>
       <c r="D16">
-        <v>0.401015017980106</v>
+        <v>0.4011759511791343</v>
       </c>
       <c r="E16">
-        <v>0.0008148451925960032</v>
+        <v>0.0006452890259080468</v>
       </c>
       <c r="F16">
-        <v>0.98859649122807</v>
+        <v>0.9855967078189299</v>
       </c>
       <c r="G16">
-        <v>0.004785848442454554</v>
+        <v>0.005416885705028296</v>
       </c>
       <c r="H16">
-        <v>0.2515918959553402</v>
+        <v>0.2519011464700212</v>
       </c>
       <c r="I16">
-        <v>0.000827205780661755</v>
+        <v>0.000654691668740659</v>
       </c>
       <c r="J16">
-        <v>0.9235584846236631</v>
+        <v>0.7296523663807614</v>
       </c>
       <c r="K16">
-        <v>0.04156014062492264</v>
+        <v>0.08077443214578772</v>
       </c>
       <c r="L16">
-        <v>0.03909774436090226</v>
+        <v>0.02392927907331199</v>
       </c>
       <c r="M16">
-        <v>0.00794009084519328</v>
+        <v>0.007652672723815713</v>
       </c>
       <c r="N16">
-        <v>0.2728205128205127</v>
+        <v>0.2643461362597165</v>
       </c>
       <c r="O16">
-        <v>0.004913181538505507</v>
+        <v>0.004484453662678078</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1195,46 +1195,46 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6691753541243338</v>
+        <v>0.6749659662468305</v>
       </c>
       <c r="C17">
-        <v>0.007366535095337245</v>
+        <v>0.007462102280136107</v>
       </c>
       <c r="D17">
-        <v>0.397273791407033</v>
+        <v>0.4036781568657972</v>
       </c>
       <c r="E17">
-        <v>0.0006115736890091594</v>
+        <v>0.0006543236155541199</v>
       </c>
       <c r="F17">
-        <v>0.997564935064935</v>
+        <v>0.9966329966329965</v>
       </c>
       <c r="G17">
-        <v>0.002025728940763694</v>
+        <v>0.00218951469758466</v>
       </c>
       <c r="H17">
-        <v>0.2480307960551989</v>
+        <v>0.2531058835064127</v>
       </c>
       <c r="I17">
-        <v>0.0004565944610740169</v>
+        <v>0.0004893670850077969</v>
       </c>
       <c r="J17">
-        <v>0.7372392758756395</v>
+        <v>0.8540494227994228</v>
       </c>
       <c r="K17">
-        <v>0.09723038080534707</v>
+        <v>0.06987018859025618</v>
       </c>
       <c r="L17">
-        <v>0.01236858379715523</v>
+        <v>0.01957070707070707</v>
       </c>
       <c r="M17">
-        <v>0.003054631051271274</v>
+        <v>0.003259791640862524</v>
       </c>
       <c r="N17">
-        <v>0.2548784548784548</v>
+        <v>0.2638362794612795</v>
       </c>
       <c r="O17">
-        <v>0.002025432045130282</v>
+        <v>0.002137199849931382</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1289,46 +1289,46 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6911928104575162</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.008062594159511161</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3790079202186503</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0009695560043923024</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9905882352941177</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.003495982534443165</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2343342974226122</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0005488130052119233</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04313725490196078</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.0342896489740173</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.001089324618736383</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0008920599431916183</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.2344617092119867</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0006560003901364131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1336,46 +1336,46 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.709077338373574</v>
+        <v>0.6822866115484097</v>
       </c>
       <c r="C20">
-        <v>0.007062437239444885</v>
+        <v>0.006743121568052679</v>
       </c>
       <c r="D20">
-        <v>0.408760783280783</v>
+        <v>0.4064742797742549</v>
       </c>
       <c r="E20">
-        <v>0.001777138194261285</v>
+        <v>0.0007616156970823296</v>
       </c>
       <c r="F20">
-        <v>0.9864390928220718</v>
+        <v>0.9921718185467682</v>
       </c>
       <c r="G20">
-        <v>0.003766636423466974</v>
+        <v>0.003776660414520516</v>
       </c>
       <c r="H20">
-        <v>0.2579045097016149</v>
+        <v>0.255627985185094</v>
       </c>
       <c r="I20">
-        <v>0.001620401859808829</v>
+        <v>0.0006429479401419136</v>
       </c>
       <c r="J20">
-        <v>0.9183162280685075</v>
+        <v>0.8994771744849966</v>
       </c>
       <c r="K20">
-        <v>0.04236247403308901</v>
+        <v>0.05054813688835502</v>
       </c>
       <c r="L20">
-        <v>0.06547298854991163</v>
+        <v>0.03056827363318072</v>
       </c>
       <c r="M20">
-        <v>0.01065463428168846</v>
+        <v>0.005596382005703306</v>
       </c>
       <c r="N20">
-        <v>0.2932909196067091</v>
+        <v>0.2721085005546032</v>
       </c>
       <c r="O20">
-        <v>0.00720631656294618</v>
+        <v>0.003432449325034448</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1477,46 +1477,46 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7825332125603864</v>
+        <v>0.7892842704091947</v>
       </c>
       <c r="C23">
-        <v>0.009909393656149845</v>
+        <v>0.009626342523675557</v>
       </c>
       <c r="D23">
-        <v>0.4143213702153667</v>
+        <v>0.4141892455356824</v>
       </c>
       <c r="E23">
-        <v>0.00575883422108886</v>
+        <v>0.00401651921544921</v>
       </c>
       <c r="F23">
-        <v>0.9559178743961354</v>
+        <v>0.9577810505645556</v>
       </c>
       <c r="G23">
-        <v>0.01370242684775913</v>
+        <v>0.01132836881740518</v>
       </c>
       <c r="H23">
-        <v>0.2660165268558375</v>
+        <v>0.2651651275717821</v>
       </c>
       <c r="I23">
-        <v>0.005624024505725689</v>
+        <v>0.004029195220332515</v>
       </c>
       <c r="J23">
-        <v>0.9122396386651891</v>
+        <v>0.8863311404794775</v>
       </c>
       <c r="K23">
-        <v>0.04641037723989461</v>
+        <v>0.0509567342252083</v>
       </c>
       <c r="L23">
-        <v>0.1927536231884059</v>
+        <v>0.1707095209217708</v>
       </c>
       <c r="M23">
-        <v>0.0305448015715529</v>
+        <v>0.02400857565996634</v>
       </c>
       <c r="N23">
-        <v>0.3688684503901896</v>
+        <v>0.3564230279161357</v>
       </c>
       <c r="O23">
-        <v>0.02082833339146728</v>
+        <v>0.01598518899936724</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1571,46 +1571,46 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.666725768321513</v>
+        <v>0.6574123430466714</v>
       </c>
       <c r="C25">
-        <v>0.01236298225455346</v>
+        <v>0.01101423274187785</v>
       </c>
       <c r="D25">
-        <v>0.3996095942390379</v>
+        <v>0.4106620067178242</v>
       </c>
       <c r="E25">
-        <v>0.003033923189944276</v>
+        <v>0.003242910291125833</v>
       </c>
       <c r="F25">
-        <v>0.9840425531914893</v>
+        <v>0.9846230158730158</v>
       </c>
       <c r="G25">
-        <v>0.01009824823821959</v>
+        <v>0.008102188604627525</v>
       </c>
       <c r="H25">
-        <v>0.2508569273935035</v>
+        <v>0.2595690416782497</v>
       </c>
       <c r="I25">
-        <v>0.002028209255815552</v>
+        <v>0.002327951231045733</v>
       </c>
       <c r="J25">
-        <v>0.9157451738568761</v>
+        <v>0.9343129815786066</v>
       </c>
       <c r="K25">
-        <v>0.05057979833442805</v>
+        <v>0.04126989483086663</v>
       </c>
       <c r="L25">
-        <v>0.1173758865248227</v>
+        <v>0.1180037313432836</v>
       </c>
       <c r="M25">
-        <v>0.01109168056393655</v>
+        <v>0.01129901409839496</v>
       </c>
       <c r="N25">
-        <v>0.3173758865248227</v>
+        <v>0.3248106060606061</v>
       </c>
       <c r="O25">
-        <v>0.007493601938868</v>
+        <v>0.008057260758263962</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1618,46 +1618,46 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7282424969987996</v>
+        <v>0.7188113002662184</v>
       </c>
       <c r="C26">
-        <v>0.01006245443173703</v>
+        <v>0.01029771035501581</v>
       </c>
       <c r="D26">
-        <v>0.4828241313284786</v>
+        <v>0.4769302216194776</v>
       </c>
       <c r="E26">
-        <v>0.005255484644380082</v>
+        <v>0.003676144656718117</v>
       </c>
       <c r="F26">
-        <v>0.9832653061224491</v>
+        <v>0.9760403530895333</v>
       </c>
       <c r="G26">
-        <v>0.005621760297850442</v>
+        <v>0.008381477442069185</v>
       </c>
       <c r="H26">
-        <v>0.32050171683454</v>
+        <v>0.3159946206617989</v>
       </c>
       <c r="I26">
-        <v>0.005043461855363973</v>
+        <v>0.003816918605368091</v>
       </c>
       <c r="J26">
-        <v>0.9548499505264403</v>
+        <v>0.9406712587819106</v>
       </c>
       <c r="K26">
-        <v>0.02961373271289702</v>
+        <v>0.03380970816535711</v>
       </c>
       <c r="L26">
-        <v>0.1352941176470588</v>
+        <v>0.1376366120218579</v>
       </c>
       <c r="M26">
-        <v>0.02221554972113105</v>
+        <v>0.02059660201597439</v>
       </c>
       <c r="N26">
-        <v>0.3826190476190477</v>
+        <v>0.3798421372191864</v>
       </c>
       <c r="O26">
-        <v>0.01456911116683696</v>
+        <v>0.01265602466071525</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1665,46 +1665,46 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7710992939022027</v>
+        <v>0.782609577922078</v>
       </c>
       <c r="C27">
-        <v>0.01114404473893216</v>
+        <v>0.009597445973335006</v>
       </c>
       <c r="D27">
-        <v>0.3984537927489327</v>
+        <v>0.4064456452309742</v>
       </c>
       <c r="E27">
-        <v>0.001934745138274019</v>
+        <v>0.003164528991993598</v>
       </c>
       <c r="F27">
-        <v>0.9731471535982815</v>
+        <v>0.975378787878788</v>
       </c>
       <c r="G27">
-        <v>0.01095177159497918</v>
+        <v>0.009720901928325643</v>
       </c>
       <c r="H27">
-        <v>0.2508894705632099</v>
+        <v>0.257195365088595</v>
       </c>
       <c r="I27">
-        <v>0.00186745218530221</v>
+        <v>0.002898860435821049</v>
       </c>
       <c r="J27">
-        <v>0.940021349339287</v>
+        <v>0.8738942629104915</v>
       </c>
       <c r="K27">
-        <v>0.0306020202676921</v>
+        <v>0.05833984713689022</v>
       </c>
       <c r="L27">
-        <v>0.09217129474740714</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="M27">
-        <v>0.01569164885544233</v>
+        <v>0.01852070643231314</v>
       </c>
       <c r="N27">
-        <v>0.3014030612244898</v>
+        <v>0.3165760869565217</v>
       </c>
       <c r="O27">
-        <v>0.009715269588291497</v>
+        <v>0.01229870422596219</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1712,46 +1712,46 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.7674342105263158</v>
+        <v>0.7740711669283098</v>
       </c>
       <c r="C28">
-        <v>0.01166406687904653</v>
+        <v>0.008900457445542798</v>
       </c>
       <c r="D28">
-        <v>0.4277771607138552</v>
+        <v>0.433323813714649</v>
       </c>
       <c r="E28">
-        <v>0.009679915790931248</v>
+        <v>0.006085031562707177</v>
       </c>
       <c r="F28">
-        <v>0.9451754385964911</v>
+        <v>0.954997383568812</v>
       </c>
       <c r="G28">
-        <v>0.01801238508044678</v>
+        <v>0.01357861743517463</v>
       </c>
       <c r="H28">
-        <v>0.2801970253576879</v>
+        <v>0.2819169337185611</v>
       </c>
       <c r="I28">
-        <v>0.01038894764146076</v>
+        <v>0.006052411229460541</v>
       </c>
       <c r="J28">
-        <v>0.9088530792590251</v>
+        <v>0.9525783670197415</v>
       </c>
       <c r="K28">
-        <v>0.05034773187006525</v>
+        <v>0.02284442524030861</v>
       </c>
       <c r="L28">
-        <v>0.237719298245614</v>
+        <v>0.2333548804137039</v>
       </c>
       <c r="M28">
-        <v>0.04413637599448367</v>
+        <v>0.02935533653754739</v>
       </c>
       <c r="N28">
-        <v>0.4009784075573549</v>
+        <v>0.4036300777873812</v>
       </c>
       <c r="O28">
-        <v>0.03027051719141899</v>
+        <v>0.01992356754166946</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1759,46 +1759,46 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.7772764869539063</v>
+        <v>0.7667442705237435</v>
       </c>
       <c r="C29">
-        <v>0.008211917851489114</v>
+        <v>0.007095018133719155</v>
       </c>
       <c r="D29">
-        <v>0.4548465294767112</v>
+        <v>0.455062856993693</v>
       </c>
       <c r="E29">
-        <v>0.008559188428745701</v>
+        <v>0.00755617774759082</v>
       </c>
       <c r="F29">
-        <v>0.9564879564879565</v>
+        <v>0.9608843537414968</v>
       </c>
       <c r="G29">
-        <v>0.009275821403463502</v>
+        <v>0.008530577553008123</v>
       </c>
       <c r="H29">
-        <v>0.2999127943917833</v>
+        <v>0.299388633069192</v>
       </c>
       <c r="I29">
-        <v>0.007337025802674535</v>
+        <v>0.006605918425363344</v>
       </c>
       <c r="J29">
-        <v>0.942451316800291</v>
+        <v>0.9617762219688543</v>
       </c>
       <c r="K29">
-        <v>0.03378460238494108</v>
+        <v>0.02033265874166557</v>
       </c>
       <c r="L29">
-        <v>0.3580971000325838</v>
+        <v>0.3308896374083612</v>
       </c>
       <c r="M29">
-        <v>0.02914771955783069</v>
+        <v>0.02604237180852303</v>
       </c>
       <c r="N29">
-        <v>0.4888379594261947</v>
+        <v>0.4729937087617001</v>
       </c>
       <c r="O29">
-        <v>0.02179095540957904</v>
+        <v>0.01918403188288442</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1806,46 +1806,46 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.7133324246967424</v>
+        <v>0.7127153891859773</v>
       </c>
       <c r="C30">
-        <v>0.0112101476313391</v>
+        <v>0.01222531119562287</v>
       </c>
       <c r="D30">
-        <v>0.3305713971232991</v>
+        <v>0.3363250204669635</v>
       </c>
       <c r="E30">
-        <v>0.001525839497152126</v>
+        <v>0.001316225895803491</v>
       </c>
       <c r="F30">
-        <v>0.9749216300940438</v>
+        <v>0.9768270944741532</v>
       </c>
       <c r="G30">
-        <v>0.008309725220834063</v>
+        <v>0.007734373599221134</v>
       </c>
       <c r="H30">
-        <v>0.1990439891428637</v>
+        <v>0.2031502172647493</v>
       </c>
       <c r="I30">
-        <v>0.000792635046667961</v>
+        <v>0.0007105577034146882</v>
       </c>
       <c r="J30">
-        <v>0.2500636618283677</v>
+        <v>0.2670518207282913</v>
       </c>
       <c r="K30">
-        <v>0.08884209536248572</v>
+        <v>0.09649740324179878</v>
       </c>
       <c r="L30">
-        <v>0.01090909090909091</v>
+        <v>0.01225490196078431</v>
       </c>
       <c r="M30">
-        <v>0.005260714192007033</v>
+        <v>0.006109206629962659</v>
       </c>
       <c r="N30">
-        <v>0.2050505050505051</v>
+        <v>0.2099622457678723</v>
       </c>
       <c r="O30">
-        <v>0.00290959619396966</v>
+        <v>0.003631239941897013</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1853,46 +1853,46 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6513078278186275</v>
+        <v>0.6603078658929723</v>
       </c>
       <c r="C31">
-        <v>0.009189086173941763</v>
+        <v>0.009364043418859436</v>
       </c>
       <c r="D31">
-        <v>0.3595645548524543</v>
+        <v>0.3749645629888599</v>
       </c>
       <c r="E31">
-        <v>0.002003142032627858</v>
+        <v>0.002109888189178455</v>
       </c>
       <c r="F31">
-        <v>0.975</v>
+        <v>0.9724025974025974</v>
       </c>
       <c r="G31">
-        <v>0.008827920781095067</v>
+        <v>0.006076960479646787</v>
       </c>
       <c r="H31">
-        <v>0.2205881713139259</v>
+        <v>0.2324246094893783</v>
       </c>
       <c r="I31">
-        <v>0.00183213783421729</v>
+        <v>0.001895051866531633</v>
       </c>
       <c r="J31">
-        <v>0.9256391800547179</v>
+        <v>0.8919178376803254</v>
       </c>
       <c r="K31">
-        <v>0.04652712323088637</v>
+        <v>0.04887760572361488</v>
       </c>
       <c r="L31">
-        <v>0.0828125</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="M31">
-        <v>0.01645127927186545</v>
+        <v>0.01445775422889867</v>
       </c>
       <c r="N31">
-        <v>0.2700617283950617</v>
+        <v>0.2823419674248404</v>
       </c>
       <c r="O31">
-        <v>0.01131615889882509</v>
+        <v>0.01004342977516492</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1900,46 +1900,46 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6869435817805383</v>
+        <v>0.6858641761789461</v>
       </c>
       <c r="C32">
-        <v>0.007146344323354592</v>
+        <v>0.007797940078513532</v>
       </c>
       <c r="D32">
-        <v>0.3998507714558041</v>
+        <v>0.4102677218499238</v>
       </c>
       <c r="E32">
-        <v>0.00245733472095655</v>
+        <v>0.002277241085198556</v>
       </c>
       <c r="F32">
-        <v>0.9807749186631175</v>
+        <v>0.9815051020408164</v>
       </c>
       <c r="G32">
-        <v>0.007177962065377685</v>
+        <v>0.006629284487068787</v>
       </c>
       <c r="H32">
-        <v>0.2513510961243659</v>
+        <v>0.2595946698207467</v>
       </c>
       <c r="I32">
-        <v>0.00242542817382034</v>
+        <v>0.002282952189449683</v>
       </c>
       <c r="J32">
-        <v>0.9608881138777455</v>
+        <v>0.9692255130612557</v>
       </c>
       <c r="K32">
-        <v>0.009646125092061753</v>
+        <v>0.008645495332986419</v>
       </c>
       <c r="L32">
-        <v>0.102536231884058</v>
+        <v>0.1113128867366155</v>
       </c>
       <c r="M32">
-        <v>0.01580856398516622</v>
+        <v>0.01483630632647517</v>
       </c>
       <c r="N32">
-        <v>0.3084390818944596</v>
+        <v>0.3204577968526467</v>
       </c>
       <c r="O32">
-        <v>0.01056686854117939</v>
+        <v>0.009793408479801258</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2088,46 +2088,46 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6751348078785921</v>
+        <v>0.6955899850636694</v>
       </c>
       <c r="C36">
-        <v>0.006891717989579882</v>
+        <v>0.006697581393536822</v>
       </c>
       <c r="D36">
-        <v>0.384886345801457</v>
+        <v>0.3956652026822564</v>
       </c>
       <c r="E36">
-        <v>0.001148026627943499</v>
+        <v>0.001277668792288578</v>
       </c>
       <c r="F36">
-        <v>0.9923684210526316</v>
+        <v>0.9929368876737296</v>
       </c>
       <c r="G36">
-        <v>0.004349591178629209</v>
+        <v>0.003494146963718858</v>
       </c>
       <c r="H36">
-        <v>0.2387912778280794</v>
+        <v>0.2471047442143231</v>
       </c>
       <c r="I36">
-        <v>0.000997478041597416</v>
+        <v>0.001108292633268226</v>
       </c>
       <c r="J36">
-        <v>0.8318667774438555</v>
+        <v>0.937669648278892</v>
       </c>
       <c r="K36">
-        <v>0.07931588462117789</v>
+        <v>0.04400024350730847</v>
       </c>
       <c r="L36">
-        <v>0.02897965773329028</v>
+        <v>0.04126984126984127</v>
       </c>
       <c r="M36">
-        <v>0.008237001616733188</v>
+        <v>0.007999684962133727</v>
       </c>
       <c r="N36">
-        <v>0.2551272547566097</v>
+        <v>0.2701517891391309</v>
       </c>
       <c r="O36">
-        <v>0.005466247466576049</v>
+        <v>0.005419673181533746</v>
       </c>
     </row>
   </sheetData>
